--- a/data/trans_orig/P14C20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A76E2D-15B9-4DF1-BD86-40DE1C8377CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0318F322-D90A-4C34-8666-2264EB719D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{330CFF80-E4D6-4561-ACE3-D2EFE63023B4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BA5F9C7-B474-4158-9244-FCDA1C5C888B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>69,11%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,25 @@
     <t>30,89%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>37,09%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +137,13 @@
     <t>5,49%</t>
   </si>
   <si>
-    <t>24,93%</t>
+    <t>30,49%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>18,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,52 +155,52 @@
     <t>77,65%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>37,57%</t>
+    <t>38,77%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -212,13 +209,13 @@
     <t>4,62%</t>
   </si>
   <si>
-    <t>23,69%</t>
+    <t>25,28%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>12,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -227,10 +224,7 @@
     <t>86,93%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>29,24%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -239,13 +233,13 @@
     <t>91,21%</t>
   </si>
   <si>
-    <t>55,92%</t>
+    <t>53,65%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>70,54%</t>
+    <t>70,76%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -254,7 +248,7 @@
     <t>8,79%</t>
   </si>
   <si>
-    <t>44,08%</t>
+    <t>46,35%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -266,55 +260,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -323,13 +317,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -744,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DC8F29-7EC7-4C54-B7A6-17BB692D3526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402DD1FE-02BC-4000-919A-F0C40A212A1D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,10 +931,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -949,19 +943,19 @@
         <v>5159</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -970,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -985,13 +979,13 @@
         <v>1022</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1000,13 +994,13 @@
         <v>1022</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1021,13 +1015,13 @@
         <v>9553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1036,13 +1030,13 @@
         <v>18626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -1051,18 +1045,18 @@
         <v>28179</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1074,13 +1068,13 @@
         <v>10783</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -1089,13 +1083,13 @@
         <v>17079</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -1104,13 +1098,13 @@
         <v>27862</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,13 +1119,13 @@
         <v>3104</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -1140,13 +1134,13 @@
         <v>5233</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1155,19 +1149,19 @@
         <v>8338</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1176,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1191,13 +1185,13 @@
         <v>1080</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1206,13 +1200,13 @@
         <v>1080</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1227,13 +1221,13 @@
         <v>13887</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1242,13 +1236,13 @@
         <v>23392</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -1257,18 +1251,18 @@
         <v>37279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1280,13 +1274,13 @@
         <v>7018</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1295,13 +1289,13 @@
         <v>3932</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1310,13 +1304,13 @@
         <v>10950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,13 +1325,13 @@
         <v>1055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1346,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1361,19 +1355,19 @@
         <v>1055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1382,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1397,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1412,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,13 +1427,13 @@
         <v>8073</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1448,13 +1442,13 @@
         <v>3932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -1463,13 +1457,13 @@
         <v>12005</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,13 +1480,13 @@
         <v>24402</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -1501,13 +1495,13 @@
         <v>36407</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -1516,13 +1510,13 @@
         <v>60809</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,13 +1531,13 @@
         <v>7111</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1552,13 +1546,13 @@
         <v>7441</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1567,19 +1561,19 @@
         <v>14552</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1588,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1603,13 +1597,13 @@
         <v>2102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1618,13 +1612,13 @@
         <v>2102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1639,13 +1633,13 @@
         <v>31513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -1654,13 +1648,13 @@
         <v>45950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -1669,18 +1663,18 @@
         <v>77463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0318F322-D90A-4C34-8666-2264EB719D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{763F4246-419A-42F0-B0BD-D43BE605FAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BA5F9C7-B474-4158-9244-FCDA1C5C888B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39BB9F18-5A2D-4A9B-9844-D1A823A0DD6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
-  <si>
-    <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
+  <si>
+    <t>Población según el tiempo de diagnóstico del hemorroides en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,172 +74,178 @@
     <t>69,11%</t>
   </si>
   <si>
-    <t>36,4%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>53,65%</t>
+    <t>48,93%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>70,76%</t>
+    <t>73,43%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -248,7 +254,7 @@
     <t>8,79%</t>
   </si>
   <si>
-    <t>46,35%</t>
+    <t>51,07%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -260,55 +266,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -317,13 +323,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>16,1%</t>
+    <t>14,51%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -738,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402DD1FE-02BC-4000-919A-F0C40A212A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9AE4E9-A8CB-4361-AE5C-B2B2D3B6D516}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -931,10 +937,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -943,19 +949,19 @@
         <v>5159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -964,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -979,13 +985,13 @@
         <v>1022</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -994,13 +1000,13 @@
         <v>1022</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1015,13 +1021,13 @@
         <v>9553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1030,13 +1036,13 @@
         <v>18626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -1045,18 +1051,18 @@
         <v>28179</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1068,13 +1074,13 @@
         <v>10783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -1083,13 +1089,13 @@
         <v>17079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -1098,13 +1104,13 @@
         <v>27862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,13 +1125,13 @@
         <v>3104</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -1134,13 +1140,13 @@
         <v>5233</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1149,19 +1155,19 @@
         <v>8338</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1170,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1185,13 +1191,13 @@
         <v>1080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1200,13 +1206,13 @@
         <v>1080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,13 +1227,13 @@
         <v>13887</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1236,13 +1242,13 @@
         <v>23392</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -1251,18 +1257,18 @@
         <v>37279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1274,13 +1280,13 @@
         <v>7018</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1289,13 +1295,13 @@
         <v>3932</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1304,13 +1310,13 @@
         <v>10950</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,13 +1331,13 @@
         <v>1055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1340,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1355,19 +1361,19 @@
         <v>1055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1376,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1391,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1406,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,13 +1433,13 @@
         <v>8073</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1442,13 +1448,13 @@
         <v>3932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -1457,13 +1463,13 @@
         <v>12005</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,13 +1486,13 @@
         <v>24402</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -1495,13 +1501,13 @@
         <v>36407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -1510,13 +1516,13 @@
         <v>60809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1537,13 @@
         <v>7111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1546,13 +1552,13 @@
         <v>7441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1561,19 +1567,19 @@
         <v>14552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1582,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1597,13 +1603,13 @@
         <v>2102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1612,13 +1618,13 @@
         <v>2102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1639,13 @@
         <v>31513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -1648,13 +1654,13 @@
         <v>45950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -1663,18 +1669,18 @@
         <v>77463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
